--- a/Note de cadrage/note de cadrage.xlsx
+++ b/Note de cadrage/note de cadrage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leode\OneDrive\Bureau\Pojet fil rouge\Note de cadrage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533D1DF-D5B9-45D7-8FBD-87799C073E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD735F-833C-420F-A154-2C6AEBFFD6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09E4F2D4-278F-4D8B-BA16-5BBDBDDE9EF8}"/>
+    <workbookView xWindow="6915" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{09E4F2D4-278F-4D8B-BA16-5BBDBDDE9EF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Denomination des phases</t>
   </si>
@@ -77,9 +69,6 @@
     <t>Back-end</t>
   </si>
   <si>
-    <t>Aprentissage BDD</t>
-  </si>
-  <si>
     <t>Creation BDD</t>
   </si>
   <si>
@@ -89,9 +78,6 @@
     <t>integration A.P.I</t>
   </si>
   <si>
-    <t>Profils</t>
-  </si>
-  <si>
     <t>Aprentissage RGPD</t>
   </si>
   <si>
@@ -117,19 +103,82 @@
   </si>
   <si>
     <t>Maquettage</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Antécédents</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Estimation = (a + 4m + p) / 6</t>
+  </si>
+  <si>
+    <t>18 900</t>
+  </si>
+  <si>
+    <t>Code PHP</t>
+  </si>
+  <si>
+    <t>D (front end javascript)</t>
+  </si>
+  <si>
+    <t>E (back-end BDD)</t>
+  </si>
+  <si>
+    <t>F (back end-PHP)</t>
+  </si>
+  <si>
+    <t>A(maquettage)</t>
+  </si>
+  <si>
+    <t>B (front-end html/css)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C (A.P.I)</t>
+  </si>
+  <si>
+    <t>G (RGPD)</t>
+  </si>
+  <si>
+    <t>h (Tests et securité)</t>
+  </si>
+  <si>
+    <t>B,C,D,E,F,G</t>
+  </si>
+  <si>
+    <t>I (deploiement)</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -183,12 +232,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,15 +261,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -233,94 +273,67 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,259 +648,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDBDCB3-72B0-4E77-B04C-FD6606859020}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="15"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="10">
         <v>44916</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="10">
         <v>44983</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="D2" s="12">
+        <v>65</v>
+      </c>
+      <c r="E2" s="12">
+        <f>65*300</f>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="22">
         <v>44916</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="22">
+        <v>44983</v>
+      </c>
+      <c r="D3" s="23">
+        <v>65</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E4" si="0">65*300</f>
+        <v>19500</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="22">
         <v>44916</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="22">
+        <v>44983</v>
+      </c>
+      <c r="D4" s="23">
+        <v>65</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>19500</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B5" s="19">
+        <v>44586</v>
+      </c>
+      <c r="C5" s="19">
+        <v>45031</v>
+      </c>
+      <c r="D5" s="13">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2">
+        <v>63</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44951</v>
+      </c>
+      <c r="C6" s="24">
+        <v>44967</v>
+      </c>
+      <c r="D6" s="25">
+        <v>16</v>
+      </c>
+      <c r="E6" s="25">
+        <v>4800</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2">
+        <v>108</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="24">
+        <v>44951</v>
+      </c>
+      <c r="C7" s="24">
+        <v>45004</v>
+      </c>
+      <c r="D7" s="25">
+        <v>52</v>
+      </c>
+      <c r="E7" s="25">
+        <f>300*D7</f>
+        <v>15600</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <v>79</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="24">
+        <v>44952</v>
+      </c>
+      <c r="C8" s="24">
+        <v>45004</v>
+      </c>
+      <c r="D8" s="25">
+        <v>51</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" ref="E8:E22" si="1">300*D8</f>
+        <v>15300</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2">
+        <v>108</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="24">
+        <v>44951</v>
+      </c>
+      <c r="C9" s="24">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="25">
+        <v>64</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>19200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>79</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="24">
+        <v>44984</v>
+      </c>
+      <c r="C10" s="24">
+        <v>45031</v>
+      </c>
+      <c r="D10" s="25">
+        <v>79</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>79</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="29">
+        <v>44958</v>
+      </c>
+      <c r="C11" s="29">
+        <v>45077</v>
+      </c>
+      <c r="D11" s="14">
+        <v>119</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="1"/>
+        <v>35700</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="30">
+        <v>44958</v>
+      </c>
+      <c r="C12" s="30">
+        <v>45066</v>
+      </c>
+      <c r="D12" s="26">
+        <v>108</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="30">
+        <v>44958</v>
+      </c>
+      <c r="C13" s="30">
+        <v>44967</v>
+      </c>
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="B14" s="30">
+        <v>44986</v>
+      </c>
+      <c r="C14" s="30">
+        <v>45066</v>
+      </c>
+      <c r="D14" s="26">
+        <v>108</v>
+      </c>
+      <c r="E14" s="26">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="30">
+        <v>44998</v>
+      </c>
+      <c r="C15" s="30">
+        <v>45077</v>
+      </c>
+      <c r="D15" s="26">
+        <v>79</v>
+      </c>
+      <c r="E15" s="26">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="30">
+        <v>44998</v>
+      </c>
+      <c r="C16" s="30">
+        <v>45077</v>
+      </c>
+      <c r="D16" s="26">
+        <v>79</v>
+      </c>
+      <c r="E16" s="26">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="30">
+        <v>44998</v>
+      </c>
+      <c r="C17" s="30">
+        <v>45077</v>
+      </c>
+      <c r="D17" s="26">
+        <v>79</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="30">
+        <v>44998</v>
+      </c>
+      <c r="C18" s="30">
+        <v>45077</v>
+      </c>
+      <c r="D18" s="26">
+        <v>79</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="30">
+        <v>44998</v>
+      </c>
+      <c r="C19" s="30">
+        <v>45077</v>
+      </c>
+      <c r="D19" s="26">
+        <v>79</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="B20" s="31">
+        <v>44997</v>
+      </c>
+      <c r="C20" s="31">
+        <v>45076</v>
+      </c>
+      <c r="D20" s="27">
+        <v>79</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="1"/>
+        <v>23700</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="B21" s="28">
+        <v>45077</v>
+      </c>
+      <c r="C21" s="28">
+        <v>45089</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="28">
+        <v>45090</v>
+      </c>
+      <c r="C22" s="28">
+        <v>45092</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="29">
+      <c r="B23" s="28">
         <v>44916</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C23" s="28">
         <v>45092</v>
       </c>
-      <c r="D24" s="5">
-        <v>96</v>
-      </c>
-      <c r="E24" s="5">
-        <v>28650</v>
-      </c>
+      <c r="D23" s="11">
+        <v>176</v>
+      </c>
+      <c r="E23" s="11">
+        <f>300*176</f>
+        <v>52800</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>